--- a/Bayes-1.xlsx
+++ b/Bayes-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Předpověď</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Jdeme běhat?</t>
+  </si>
+  <si>
+    <t>slunečno</t>
+  </si>
+  <si>
+    <t>zataženo</t>
+  </si>
+  <si>
+    <t>déšť</t>
   </si>
 </sst>
 </file>
@@ -356,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +396,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bayes-1.xlsx
+++ b/Bayes-1.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ircing\Documents\work\GitHub\SUNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ircing\Documents\work\teaching\suno\programy pro příklady\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10545"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bayes-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,18 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>Předpověď</t>
-  </si>
-  <si>
-    <t>Teplota</t>
-  </si>
-  <si>
-    <t>Vlhkost</t>
-  </si>
-  <si>
-    <t>Silný vítr?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>Počasí</t>
   </si>
   <si>
     <t>Jdeme běhat?</t>
@@ -44,7 +35,13 @@
     <t>slunečno</t>
   </si>
   <si>
-    <t>zataženo</t>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zataženo </t>
   </si>
   <si>
     <t>déšť</t>
@@ -365,85 +362,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
